--- a/别伟超/别伟超个人上线率统计表.xlsx
+++ b/别伟超/别伟超个人上线率统计表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -1464,10 +1464,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -1575,37 +1575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1613,16 +1582,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,14 +1605,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1652,6 +1613,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1667,7 +1681,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1675,14 +1711,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1694,35 +1723,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1788,7 +1788,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,7 +1830,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1812,31 +1914,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,115 +1956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2402,6 +2402,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2413,26 +2422,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2467,21 +2456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2499,6 +2473,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2507,10 +2507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2519,136 +2519,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -3861,12 +3861,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V164"/>
+  <dimension ref="A1:V166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B157" sqref="$A157:$XFD157"/>
+      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61666666666667" defaultRowHeight="13.5"/>
@@ -11999,6 +11999,11 @@
       <c r="B164" s="64"/>
       <c r="C164" s="64" t="s">
         <v>435</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
